--- a/medicine/Psychotrope/Grave_(terrain)/Grave_(terrain).xlsx
+++ b/medicine/Psychotrope/Grave_(terrain)/Grave_(terrain).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En mécanique des sols, on appelle grave un sol dit propre, constitué de grosses particules mais sans argiles.
 La grave est, dans le Sud-Ouest de la France, un terrain graveleux constitué de graviers fluviatiles, prisé pour la viticulture. Ce mot pré-latin est apparenté au mot français grève (berge caillouteuse ou sablonneuse). 
@@ -512,7 +524,9 @@
           <t>Le vignoble</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le terme gascon « Las gravas de Bordèu » (prononcé [las.ˈgra.βəs.de.bur.ˈdɛw]), littéralement « Les Graves de Bordeaux », désignant le sol, a donné son nom aux vignoble des Graves, région et appellation viticole réputée du Bordelais. C'est un cas unique en France. L’ancienneté et l’originalité de cette désignation rappellent le rôle majeur que joue le terroir dans la qualité des vins de Graves.
  Portail de la géologie   Portail de la vigne et du vin                    </t>
